--- a/trunk/tp3-mn/informe/excel/mediciones.xlsx
+++ b/trunk/tp3-mn/informe/excel/mediciones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="16515" windowHeight="7740" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="16515" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos de cómputo" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,6 @@
     <t>Directional Interpolation</t>
   </si>
   <si>
-    <t>Marval, He, Cutler Filter</t>
-  </si>
-  <si>
     <t>MEDIA</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>SSIM</t>
+  </si>
+  <si>
+    <t>Malvar, He, Cutler Filter</t>
   </si>
 </sst>
 </file>
@@ -199,12 +199,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,6 +207,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
@@ -286,7 +286,7 @@
                   <c:v>Directional Interpolation</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Marval, He, Cutler Filter</c:v>
+                  <c:v>Malvar, He, Cutler Filter</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -322,11 +322,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="70032000"/>
-        <c:axId val="70054272"/>
+        <c:axId val="69966464"/>
+        <c:axId val="69988736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70032000"/>
+        <c:axId val="69966464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -335,7 +335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70054272"/>
+        <c:crossAx val="69988736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -343,7 +343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70054272"/>
+        <c:axId val="69988736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -381,7 +381,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70032000"/>
+        <c:crossAx val="69966464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -487,7 +487,7 @@
                   <c:v>Directional Interpolation</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Marval, He, Cutler Filter</c:v>
+                  <c:v>Malvar, He, Cutler Filter</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -505,7 +505,7 @@
                   <c:v>26.018051399887998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.426308406791886</c:v>
+                  <c:v>26.010491180146502</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>26.576181621576982</c:v>
@@ -544,7 +544,7 @@
                   <c:v>Directional Interpolation</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Marval, He, Cutler Filter</c:v>
+                  <c:v>Malvar, He, Cutler Filter</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -562,7 +562,7 @@
                   <c:v>34.001478448115869</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.427445957613266</c:v>
+                  <c:v>34.011628730967885</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>39.84243512891323</c:v>
@@ -580,11 +580,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="59594624"/>
-        <c:axId val="59789696"/>
+        <c:axId val="102971264"/>
+        <c:axId val="102972800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59594624"/>
+        <c:axId val="102971264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -593,7 +593,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59789696"/>
+        <c:crossAx val="102972800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -601,7 +601,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59789696"/>
+        <c:axId val="102972800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -638,7 +638,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59594624"/>
+        <c:crossAx val="102971264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -699,7 +699,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -749,7 +748,7 @@
                   <c:v>Directional Interpolation</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Marval, He, Cutler Filter</c:v>
+                  <c:v>Malvar, He, Cutler Filter</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -806,7 +805,7 @@
                   <c:v>Directional Interpolation</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Marval, He, Cutler Filter</c:v>
+                  <c:v>Malvar, He, Cutler Filter</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -842,11 +841,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="39552896"/>
-        <c:axId val="59165312"/>
+        <c:axId val="103015936"/>
+        <c:axId val="103017472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39552896"/>
+        <c:axId val="103015936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +854,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59165312"/>
+        <c:crossAx val="103017472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -863,7 +862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59165312"/>
+        <c:axId val="103017472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -901,7 +900,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39552896"/>
+        <c:crossAx val="103015936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1328,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N3:N6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,12 +1377,12 @@
         <v>12</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>7854197</v>
@@ -1422,7 +1421,7 @@
         <v>7818125</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O3" s="1">
         <f>GEOMEAN(B3:M3)</f>
@@ -1527,7 +1526,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4">
         <v>71539889</v>
@@ -1566,7 +1565,7 @@
         <v>71839285</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O6" s="1">
         <f>GEOMEAN(B6:M6)</f>
@@ -1584,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,141 +1618,141 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11">
+        <v>3</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="11">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="11">
+        <v>5</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="11">
+        <v>6</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="11">
         <v>7</v>
       </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7">
-        <v>3</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7">
-        <v>4</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7">
-        <v>5</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="7">
-        <v>6</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="7">
-        <v>7</v>
-      </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="7">
+      <c r="O2" s="12"/>
+      <c r="P2" s="11">
         <v>8</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="7">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="11">
         <v>9</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="7">
+      <c r="S2" s="12"/>
+      <c r="T2" s="11">
         <v>10</v>
       </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="7">
+      <c r="U2" s="12"/>
+      <c r="V2" s="11">
         <v>11</v>
       </c>
-      <c r="W2" s="8"/>
-      <c r="X2" s="7">
+      <c r="W2" s="12"/>
+      <c r="X2" s="11">
         <v>12</v>
       </c>
-      <c r="Y2" s="8"/>
+      <c r="Y2" s="12"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="W3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>3</v>
+      <c r="AA3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
+      <c r="A4" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>26.844742207159399</v>
@@ -1828,7 +1827,7 @@
         <v>26.128737994916101</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA4" s="1">
         <f>(V4+X4+T4+R4+P4+N4+L4+J4+H4+F4+D4+B4)/12</f>
@@ -1840,7 +1839,7 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1">
@@ -1919,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <f t="shared" ref="AA4:AB7" si="0">(V5+X5+T5+R5+P5+N5+L5+J5+H5+F5+D5+B5)/12</f>
+        <f t="shared" ref="AA5:AB7" si="0">(V5+X5+T5+R5+P5+N5+L5+J5+H5+F5+D5+B5)/12</f>
         <v>26.018051399887998</v>
       </c>
       <c r="AB5" s="1">
@@ -1928,7 +1927,7 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1">
@@ -1944,10 +1943,10 @@
         <v>31.395852717986401</v>
       </c>
       <c r="F6" s="1">
-        <v>46.742371505331498</v>
+        <v>29.752564785586902</v>
       </c>
       <c r="G6" s="1">
-        <v>55.237274865203801</v>
+        <v>38.247468145459202</v>
       </c>
       <c r="H6" s="1">
         <v>19.831855229684098</v>
@@ -2008,16 +2007,16 @@
       </c>
       <c r="AA6" s="1">
         <f t="shared" si="0"/>
-        <v>27.426308406791886</v>
+        <v>26.010491180146502</v>
       </c>
       <c r="AB6" s="1">
         <f t="shared" si="0"/>
-        <v>35.427445957613266</v>
+        <v>34.011628730967885</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>2</v>
+      <c r="A7" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>32.208476059352598</v>
@@ -2092,7 +2091,7 @@
         <v>36.735306588814296</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" si="0"/>
@@ -2105,11 +2104,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -2117,6 +2111,11 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2128,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="W4" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,141 +2162,141 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11">
+        <v>3</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="11">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="11">
+        <v>5</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="11">
+        <v>6</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="11">
+        <v>7</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2" s="11">
         <v>8</v>
       </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7">
-        <v>3</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7">
-        <v>4</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7">
-        <v>5</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="7">
-        <v>6</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="7">
-        <v>7</v>
-      </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="7">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="7">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="11">
         <v>9</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="7">
+      <c r="S2" s="12"/>
+      <c r="T2" s="11">
         <v>10</v>
       </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="7">
+      <c r="U2" s="12"/>
+      <c r="V2" s="11">
         <v>11</v>
       </c>
-      <c r="W2" s="8"/>
-      <c r="X2" s="7">
+      <c r="W2" s="12"/>
+      <c r="X2" s="11">
         <v>12</v>
       </c>
-      <c r="Y2" s="8"/>
+      <c r="Y2" s="12"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="W3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>3</v>
+      <c r="AA3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
+      <c r="A4" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>0.97030395892245302</v>
@@ -2372,7 +2371,7 @@
         <v>0.95378907444014605</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA4" s="1">
         <f>(V4+X4+T4+R4+P4+N4+L4+J4+H4+F4+D4+B4)/12</f>
@@ -2384,7 +2383,7 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1">
@@ -2472,7 +2471,7 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1">
@@ -2560,8 +2559,8 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>2</v>
+      <c r="A7" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>0.98848504093213396</v>
@@ -2636,7 +2635,7 @@
         <v>0.99692769653906899</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" si="0"/>
@@ -2649,11 +2648,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -2661,6 +2655,11 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/tp3-mn/informe/excel/mediciones.xlsx
+++ b/trunk/tp3-mn/informe/excel/mediciones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="16515" windowHeight="7740" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="16515" windowHeight="7740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos de cómputo" sheetId="1" r:id="rId1"/>
@@ -699,6 +699,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1583,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2127,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB7"/>
   <sheetViews>
-    <sheetView topLeftCell="W4" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/tp3-mn/informe/excel/mediciones.xlsx
+++ b/trunk/tp3-mn/informe/excel/mediciones.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="16515" windowHeight="7740" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="16515" windowHeight="7740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos de cómputo" sheetId="1" r:id="rId1"/>
     <sheet name="PSNR" sheetId="4" r:id="rId2"/>
     <sheet name="SSIM" sheetId="6" r:id="rId3"/>
+    <sheet name="Variación ALPHA" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="12">
   <si>
     <t>Bilinear Interpolation</t>
   </si>
@@ -43,6 +44,15 @@
   </si>
   <si>
     <t>Malvar, He, Cutler Filter</t>
+  </si>
+  <si>
+    <t>Variación ALPHA</t>
+  </si>
+  <si>
+    <t>1 (PSNR)</t>
+  </si>
+  <si>
+    <t>1 (SSIM)</t>
   </si>
 </sst>
 </file>
@@ -244,7 +254,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -322,11 +331,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="69966464"/>
-        <c:axId val="69988736"/>
+        <c:axId val="79600256"/>
+        <c:axId val="79622528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69966464"/>
+        <c:axId val="79600256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -335,7 +344,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69988736"/>
+        <c:crossAx val="79622528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -343,7 +352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69988736"/>
+        <c:axId val="79622528"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -381,14 +390,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69966464"/>
+        <c:crossAx val="79600256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -580,11 +588,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="102971264"/>
-        <c:axId val="102972800"/>
+        <c:axId val="80869248"/>
+        <c:axId val="80870784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102971264"/>
+        <c:axId val="80869248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -593,7 +601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102972800"/>
+        <c:crossAx val="80870784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -601,7 +609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102972800"/>
+        <c:axId val="80870784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -638,7 +646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102971264"/>
+        <c:crossAx val="80869248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -842,11 +850,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="103015936"/>
-        <c:axId val="103017472"/>
+        <c:axId val="92202496"/>
+        <c:axId val="92204032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103015936"/>
+        <c:axId val="92202496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103017472"/>
+        <c:crossAx val="92204032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -863,7 +871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103017472"/>
+        <c:axId val="92204032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -901,7 +909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103015936"/>
+        <c:crossAx val="92202496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -918,6 +926,584 @@
           <c:h val="0.10386299538644626"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>SSIM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Scores con alpha variable</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Todos los canales</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Variación ALPHA'!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Variación ALPHA'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.98787643171667905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98841064624576702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98848504093213396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98813635878720496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98742047667364996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Variación ALPHA'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Canal verde</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Variación ALPHA'!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Variación ALPHA'!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.99605455932470499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99765777906792097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.997884399898879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99684184123122099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99469731971824304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="34119040"/>
+        <c:axId val="34236288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="34119040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Valor del alpha</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="34236288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="34236288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SSIM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="34119040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.88748843301608171"/>
+          <c:y val="0.4282467712432792"/>
+          <c:w val="0.1049214341565938"/>
+          <c:h val="0.2409461562285779"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>PSNR Scores con alpha variable</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Variación ALPHA'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Todos los canales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Variación ALPHA'!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Variación ALPHA'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>31.864257734224498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.1795432549062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.208476059352598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.952210509334801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.493634446149802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Variación ALPHA'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Canal verde</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Variación ALPHA'!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Variación ALPHA'!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40.836578868416098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.3305090025369</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.831524601915099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.584678837901201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.524068588894202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="82617088"/>
+        <c:axId val="82618624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="82617088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Valor del alpha</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82618624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82618624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PSNR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82617088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1031,6 +1617,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1585,7 +2236,7 @@
   <dimension ref="A2:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2128,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2666,4 +3317,144 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>31.864257734224498</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40.836578868416098</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.98787643171667905</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.99605455932470499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>32.1795432549062</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44.3305090025369</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.98841064624576702</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.99765777906792097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>32.208476059352598</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44.831524601915099</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.98848504093213396</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.997884399898879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>31.952210509334801</v>
+      </c>
+      <c r="C7" s="1">
+        <v>41.584678837901201</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.98813635878720496</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.99684184123122099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>31.493634446149802</v>
+      </c>
+      <c r="C8" s="1">
+        <v>38.524068588894202</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.98742047667364996</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.99469731971824304</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/trunk/tp3-mn/informe/excel/mediciones.xlsx
+++ b/trunk/tp3-mn/informe/excel/mediciones.xlsx
@@ -1660,15 +1660,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>152399</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2235,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3323,8 +3323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
